--- a/Excel-Punto1.xlsx
+++ b/Excel-Punto1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="723" documentId="8_{9C0B82C7-FB64-4399-8F55-23A6DBC8D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DD994C0-3358-484D-8B71-88F4132AB2AA}"/>
+  <xr:revisionPtr revIDLastSave="732" documentId="8_{9C0B82C7-FB64-4399-8F55-23A6DBC8D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12464E71-CC30-41EC-9C20-22FB71829F26}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{731802CE-FA4D-4447-88F3-C734CB949B52}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{731802CE-FA4D-4447-88F3-C734CB949B52}"/>
   </bookViews>
   <sheets>
     <sheet name="d) Solución inicial básica" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>INFORMACIÓN INICIAL</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>X10</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 3</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,31 +281,22 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9897,7 +9891,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
           <a:endParaRPr lang="es-CO" sz="1100" b="1" i="0"/>
         </a:p>
       </xdr:txBody>
@@ -9912,8 +9905,8 @@
       <xdr:rowOff>180135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="945643" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="130" name="CuadroTexto 129">
@@ -10068,7 +10061,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="130" name="CuadroTexto 129">
@@ -10157,8 +10150,8 @@
       <xdr:rowOff>147144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2273828" cy="207621"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="131" name="CuadroTexto 130">
@@ -10415,7 +10408,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="131" name="CuadroTexto 130">
@@ -10540,8 +10533,8 @@
       <xdr:rowOff>90095</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2057400" cy="431528"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="CuadroTexto 131">
@@ -10748,7 +10741,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="132" name="CuadroTexto 131">
@@ -10849,8 +10842,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1921552" cy="480581"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="CuadroTexto 132">
@@ -11128,7 +11121,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="133" name="CuadroTexto 132">
@@ -11205,8 +11198,8 @@
       <xdr:rowOff>31417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1140633" cy="204671"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="CuadroTexto 133">
@@ -11362,7 +11355,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="134" name="CuadroTexto 133">
@@ -11451,8 +11444,8 @@
       <xdr:rowOff>18935</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="754309" cy="190950"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="CuadroTexto 134">
@@ -11574,7 +11567,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="135" name="CuadroTexto 134">
@@ -11672,8 +11665,8 @@
       <xdr:rowOff>28931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="641650" cy="194412"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="CuadroTexto 135">
@@ -11803,7 +11796,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="136" name="CuadroTexto 135">
@@ -11895,8 +11888,8 @@
       <xdr:rowOff>194027</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157351" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="CuadroTexto 136">
@@ -11978,7 +11971,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="137" name="CuadroTexto 136">
@@ -12043,8 +12036,8 @@
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163185" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="CuadroTexto 137">
@@ -12126,7 +12119,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="138" name="CuadroTexto 137">
@@ -12191,8 +12184,8 @@
       <xdr:rowOff>166674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="177677" cy="179793"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="CuadroTexto 138">
@@ -12306,7 +12299,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="139" name="CuadroTexto 138">
@@ -12389,8 +12382,8 @@
       <xdr:rowOff>36752</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="186141" cy="178126"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="CuadroTexto 139">
@@ -12504,7 +12497,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="140" name="CuadroTexto 139">
@@ -12587,8 +12580,8 @@
       <xdr:rowOff>73011</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="125804" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="CuadroTexto 140">
@@ -12651,7 +12644,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="141" name="CuadroTexto 140">
@@ -12716,8 +12709,8 @@
       <xdr:rowOff>108288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="129716" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="CuadroTexto 141">
@@ -12780,7 +12773,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="142" name="CuadroTexto 141">
@@ -12845,8 +12838,8 @@
       <xdr:rowOff>94401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272639" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="CuadroTexto 142">
@@ -12940,7 +12933,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="143" name="CuadroTexto 142">
@@ -13017,8 +13010,8 @@
       <xdr:rowOff>21985</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="385362" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="CuadroTexto 143">
@@ -13112,7 +13105,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="144" name="CuadroTexto 143">
@@ -13195,8 +13188,8 @@
       <xdr:rowOff>17639</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196208" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="CuadroTexto 144">
@@ -13278,7 +13271,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="145" name="CuadroTexto 144">
@@ -13349,8 +13342,8 @@
       <xdr:rowOff>175924</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1355819" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="146" name="CuadroTexto 145">
@@ -13541,7 +13534,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="146" name="CuadroTexto 145">
@@ -13654,8 +13647,8 @@
       <xdr:rowOff>143167</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="179986" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="147" name="CuadroTexto 146">
@@ -13737,7 +13730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="147" name="CuadroTexto 146">
@@ -13808,8 +13801,8 @@
       <xdr:rowOff>123928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="248466" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="148" name="CuadroTexto 147">
@@ -13903,7 +13896,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="148" name="CuadroTexto 147">
@@ -13980,8 +13973,8 @@
       <xdr:rowOff>132292</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206147" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="149" name="CuadroTexto 148">
@@ -14066,7 +14059,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="149" name="CuadroTexto 148">
@@ -14140,8 +14133,8 @@
       <xdr:rowOff>160202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214482" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="150" name="CuadroTexto 149">
@@ -14226,7 +14219,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="150" name="CuadroTexto 149">
@@ -14306,8 +14299,8 @@
       <xdr:rowOff>4296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="199606" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="151" name="CuadroTexto 150">
@@ -14385,7 +14378,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="151" name="CuadroTexto 150">
@@ -14458,8 +14451,8 @@
       <xdr:rowOff>180135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="945643" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="CuadroTexto 54">
@@ -14614,7 +14607,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="CuadroTexto 54">
@@ -14703,8 +14696,8 @@
       <xdr:rowOff>147144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2273828" cy="207621"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="CuadroTexto 55">
@@ -14961,7 +14954,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="CuadroTexto 55">
@@ -15086,8 +15079,8 @@
       <xdr:rowOff>90095</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2057400" cy="431528"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="CuadroTexto 56">
@@ -15294,7 +15287,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="57" name="CuadroTexto 56">
@@ -15395,8 +15388,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1921552" cy="480581"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="CuadroTexto 57">
@@ -15674,7 +15667,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="58" name="CuadroTexto 57">
@@ -15751,8 +15744,8 @@
       <xdr:rowOff>31417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1140633" cy="204671"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="CuadroTexto 58">
@@ -15908,7 +15901,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="59" name="CuadroTexto 58">
@@ -15997,8 +15990,8 @@
       <xdr:rowOff>175312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="127599" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="60" name="CuadroTexto 59">
@@ -16061,7 +16054,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="60" name="CuadroTexto 59">
@@ -16126,8 +16119,8 @@
       <xdr:rowOff>79859</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="117340" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="CuadroTexto 60">
@@ -16190,7 +16183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="61" name="CuadroTexto 60">
@@ -16255,8 +16248,8 @@
       <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="178702" cy="178832"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="62" name="CuadroTexto 61">
@@ -16356,7 +16349,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="62" name="CuadroTexto 61">
@@ -16439,8 +16432,8 @@
       <xdr:rowOff>18935</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="754309" cy="190950"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="CuadroTexto 62">
@@ -16562,7 +16555,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="CuadroTexto 62">
@@ -16660,8 +16653,8 @@
       <xdr:rowOff>28931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="641650" cy="194412"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="CuadroTexto 63">
@@ -16791,7 +16784,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="CuadroTexto 63">
@@ -16883,8 +16876,8 @@
       <xdr:rowOff>194027</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157351" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="65" name="CuadroTexto 64">
@@ -16966,7 +16959,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="65" name="CuadroTexto 64">
@@ -17031,8 +17024,8 @@
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163185" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="CuadroTexto 65">
@@ -17114,7 +17107,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="CuadroTexto 65">
@@ -17179,8 +17172,8 @@
       <xdr:rowOff>166674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="177677" cy="179793"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="67" name="CuadroTexto 66">
@@ -17294,7 +17287,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="67" name="CuadroTexto 66">
@@ -17377,8 +17370,8 @@
       <xdr:rowOff>36752</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="186141" cy="178126"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="68" name="CuadroTexto 67">
@@ -17492,7 +17485,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="68" name="CuadroTexto 67">
@@ -17575,8 +17568,8 @@
       <xdr:rowOff>73011</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="125804" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="69" name="CuadroTexto 68">
@@ -17639,7 +17632,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="69" name="CuadroTexto 68">
@@ -17704,8 +17697,8 @@
       <xdr:rowOff>108288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="129716" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="70" name="CuadroTexto 69">
@@ -17768,7 +17761,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="70" name="CuadroTexto 69">
@@ -17833,8 +17826,8 @@
       <xdr:rowOff>94401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272639" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="71" name="CuadroTexto 70">
@@ -17928,7 +17921,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="71" name="CuadroTexto 70">
@@ -18005,8 +17998,8 @@
       <xdr:rowOff>21985</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="385362" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="72" name="CuadroTexto 71">
@@ -18100,7 +18093,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="72" name="CuadroTexto 71">
@@ -18183,8 +18176,8 @@
       <xdr:rowOff>17639</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196208" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="73" name="CuadroTexto 72">
@@ -18266,7 +18259,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="73" name="CuadroTexto 72">
@@ -18337,8 +18330,8 @@
       <xdr:rowOff>175924</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1355819" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="CuadroTexto 73">
@@ -18529,7 +18522,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="74" name="CuadroTexto 73">
@@ -18642,8 +18635,8 @@
       <xdr:rowOff>143167</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="179986" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="75" name="CuadroTexto 74">
@@ -18725,7 +18718,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="75" name="CuadroTexto 74">
@@ -18796,8 +18789,8 @@
       <xdr:rowOff>123928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="248466" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="76" name="CuadroTexto 75">
@@ -18891,7 +18884,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="76" name="CuadroTexto 75">
@@ -18968,8 +18961,8 @@
       <xdr:rowOff>132292</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206147" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="CuadroTexto 76">
@@ -19054,7 +19047,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="77" name="CuadroTexto 76">
@@ -19128,8 +19121,8 @@
       <xdr:rowOff>160202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214482" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="CuadroTexto 77">
@@ -19214,7 +19207,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="CuadroTexto 77">
@@ -19294,8 +19287,8 @@
       <xdr:rowOff>4296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="199606" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="CuadroTexto 78">
@@ -19373,7 +19366,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="CuadroTexto 78">
@@ -19446,8 +19439,8 @@
       <xdr:rowOff>180135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="945643" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -19602,7 +19595,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -19691,8 +19684,8 @@
       <xdr:rowOff>147144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2273828" cy="207621"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -19949,7 +19942,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -20074,8 +20067,8 @@
       <xdr:rowOff>90095</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2057400" cy="431528"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -20282,7 +20275,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -20383,8 +20376,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1921552" cy="480581"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -20662,7 +20655,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -20739,8 +20732,8 @@
       <xdr:rowOff>31417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1140633" cy="204671"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -20896,7 +20889,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -20985,8 +20978,8 @@
       <xdr:rowOff>175312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="127599" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -21049,7 +21042,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -21114,8 +21107,8 @@
       <xdr:rowOff>79859</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="117340" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -21178,7 +21171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -21243,8 +21236,8 @@
       <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="178702" cy="178832"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -21344,7 +21337,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -21427,8 +21420,8 @@
       <xdr:rowOff>18935</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="754309" cy="190950"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -21550,7 +21543,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -21648,8 +21641,8 @@
       <xdr:rowOff>28931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="641650" cy="194412"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -21779,7 +21772,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -21871,8 +21864,8 @@
       <xdr:rowOff>194027</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157351" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -21954,7 +21947,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -22019,8 +22012,8 @@
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163185" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -22102,7 +22095,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -22167,8 +22160,8 @@
       <xdr:rowOff>166674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="177677" cy="179793"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -22282,7 +22275,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -22365,8 +22358,8 @@
       <xdr:rowOff>36752</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="186141" cy="178126"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -22480,7 +22473,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -22563,8 +22556,8 @@
       <xdr:rowOff>73011</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="125804" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -22627,7 +22620,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -22692,8 +22685,8 @@
       <xdr:rowOff>108288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="129716" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -22756,7 +22749,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -22821,8 +22814,8 @@
       <xdr:rowOff>94401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272639" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -22916,7 +22909,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -22993,8 +22986,8 @@
       <xdr:rowOff>21985</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="385362" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -23088,7 +23081,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -23171,8 +23164,8 @@
       <xdr:rowOff>17639</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196208" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -23254,7 +23247,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -23325,8 +23318,8 @@
       <xdr:rowOff>175924</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1355819" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -23517,7 +23510,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -23630,8 +23623,8 @@
       <xdr:rowOff>143167</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="179986" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -23713,7 +23706,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -23784,8 +23777,8 @@
       <xdr:rowOff>123928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="248466" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -23879,7 +23872,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -23956,8 +23949,8 @@
       <xdr:rowOff>132292</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206147" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -24042,7 +24035,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -24116,8 +24109,8 @@
       <xdr:rowOff>160202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214482" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -24202,7 +24195,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -24282,8 +24275,8 @@
       <xdr:rowOff>4296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="199606" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -24361,7 +24354,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -24434,8 +24427,8 @@
       <xdr:rowOff>180135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="945643" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -24590,7 +24583,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -24679,8 +24672,8 @@
       <xdr:rowOff>147144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2273828" cy="207621"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -24937,7 +24930,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -25062,8 +25055,8 @@
       <xdr:rowOff>90095</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2057400" cy="431528"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -25270,7 +25263,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -25371,8 +25364,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1921552" cy="480581"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -25650,7 +25643,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -25727,8 +25720,8 @@
       <xdr:rowOff>31417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1140633" cy="204671"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -25884,7 +25877,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -25973,8 +25966,8 @@
       <xdr:rowOff>175312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="127599" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -26037,7 +26030,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -26102,8 +26095,8 @@
       <xdr:rowOff>79859</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="117340" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -26166,7 +26159,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -26231,8 +26224,8 @@
       <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="178702" cy="178832"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -26332,7 +26325,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -26415,8 +26408,8 @@
       <xdr:rowOff>18935</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="754309" cy="190950"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -26538,7 +26531,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -26636,8 +26629,8 @@
       <xdr:rowOff>28931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="641650" cy="194412"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -26767,7 +26760,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -26859,8 +26852,8 @@
       <xdr:rowOff>194027</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157351" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -26942,7 +26935,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -27007,8 +27000,8 @@
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163185" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -27090,7 +27083,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -27155,8 +27148,8 @@
       <xdr:rowOff>166674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="177677" cy="179793"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -27270,7 +27263,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -27353,8 +27346,8 @@
       <xdr:rowOff>36752</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="186141" cy="178126"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -27468,7 +27461,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -27551,8 +27544,8 @@
       <xdr:rowOff>73011</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="125804" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -27615,7 +27608,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -27680,8 +27673,8 @@
       <xdr:rowOff>108288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="129716" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -27744,7 +27737,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -27809,8 +27802,8 @@
       <xdr:rowOff>94401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272639" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -27904,7 +27897,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -27981,8 +27974,8 @@
       <xdr:rowOff>21985</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="385362" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -28076,7 +28069,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -28159,8 +28152,8 @@
       <xdr:rowOff>17639</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196208" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -28242,7 +28235,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -28313,8 +28306,8 @@
       <xdr:rowOff>175924</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1355819" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -28505,7 +28498,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -28618,8 +28611,8 @@
       <xdr:rowOff>143167</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="179986" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -28701,7 +28694,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -28772,8 +28765,8 @@
       <xdr:rowOff>123928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="248466" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -28867,7 +28860,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -28944,8 +28937,8 @@
       <xdr:rowOff>132292</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206147" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -29030,7 +29023,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -29104,8 +29097,8 @@
       <xdr:rowOff>160202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214482" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -29190,7 +29183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -29270,8 +29263,8 @@
       <xdr:rowOff>4296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="199606" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -29349,7 +29342,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -29422,8 +29415,8 @@
       <xdr:rowOff>180135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="945643" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -29578,7 +29571,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -29667,8 +29660,8 @@
       <xdr:rowOff>147144</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2273828" cy="207621"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -29925,7 +29918,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -30050,8 +30043,8 @@
       <xdr:rowOff>90095</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2057400" cy="431528"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -30258,7 +30251,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -30359,8 +30352,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1921552" cy="480581"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -30638,7 +30631,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -30715,8 +30708,8 @@
       <xdr:rowOff>31417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1140633" cy="204671"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -30872,7 +30865,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -30961,8 +30954,8 @@
       <xdr:rowOff>175312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="127599" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -31025,7 +31018,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CuadroTexto 6">
@@ -31090,8 +31083,8 @@
       <xdr:rowOff>79859</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="117340" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -31154,7 +31147,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CuadroTexto 7">
@@ -31219,8 +31212,8 @@
       <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="178702" cy="178832"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -31320,7 +31313,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CuadroTexto 8">
@@ -31403,8 +31396,8 @@
       <xdr:rowOff>18935</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="754309" cy="190950"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -31526,7 +31519,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CuadroTexto 9">
@@ -31624,8 +31617,8 @@
       <xdr:rowOff>28931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="641650" cy="194412"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -31755,7 +31748,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CuadroTexto 10">
@@ -31847,8 +31840,8 @@
       <xdr:rowOff>194027</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157351" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -31930,7 +31923,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -31995,8 +31988,8 @@
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="163185" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -32078,7 +32071,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="CuadroTexto 12">
@@ -32143,8 +32136,8 @@
       <xdr:rowOff>166674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="177677" cy="179793"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -32258,7 +32251,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="CuadroTexto 13">
@@ -32341,8 +32334,8 @@
       <xdr:rowOff>36752</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="186141" cy="178126"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -32456,7 +32449,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="CuadroTexto 14">
@@ -32539,8 +32532,8 @@
       <xdr:rowOff>73011</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="125804" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -32603,7 +32596,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="CuadroTexto 15">
@@ -32668,8 +32661,8 @@
       <xdr:rowOff>108288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="129716" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -32732,7 +32725,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="CuadroTexto 16">
@@ -32797,8 +32790,8 @@
       <xdr:rowOff>94401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="272639" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -32892,7 +32885,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="CuadroTexto 17">
@@ -32969,8 +32962,8 @@
       <xdr:rowOff>21985</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="385362" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -33064,7 +33057,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="CuadroTexto 18">
@@ -33147,8 +33140,8 @@
       <xdr:rowOff>17639</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196208" cy="191463"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -33230,7 +33223,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="CuadroTexto 19">
@@ -33301,8 +33294,8 @@
       <xdr:rowOff>175924</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1355819" cy="196272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -33493,7 +33486,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="CuadroTexto 20">
@@ -33606,8 +33599,8 @@
       <xdr:rowOff>143167</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="179986" cy="182614"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -33689,7 +33682,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="CuadroTexto 21">
@@ -33760,8 +33753,8 @@
       <xdr:rowOff>123928</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="248466" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -33855,7 +33848,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22">
@@ -33932,8 +33925,8 @@
       <xdr:rowOff>132292</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206147" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -34018,7 +34011,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="CuadroTexto 23">
@@ -34092,8 +34085,8 @@
       <xdr:rowOff>160202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="214482" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -34178,7 +34171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24">
@@ -34258,8 +34251,8 @@
       <xdr:rowOff>4296</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="199606" cy="187872"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -34337,7 +34330,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="CuadroTexto 25">
@@ -34721,10 +34714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B6B298-99EE-4057-BECA-208DC52717A9}">
-  <dimension ref="A1:BE107"/>
+  <dimension ref="A1:BD107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="51" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView showGridLines="0" zoomScale="53" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -34733,29 +34726,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
@@ -35022,29 +35015,29 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
@@ -35413,19 +35406,19 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D24" s="1" cm="1">
@@ -35506,28 +35499,28 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
@@ -35743,17 +35736,17 @@
       <c r="S39" s="8">
         <v>0</v>
       </c>
-      <c r="U39" s="9" t="s">
+      <c r="U39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V39" s="9"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X39" s="9" t="s">
+      <c r="X39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="7" t="s">
         <v>15</v>
       </c>
@@ -35779,42 +35772,42 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C47" s="1">
@@ -35894,20 +35887,20 @@
       <c r="O49" s="4">
         <v>0</v>
       </c>
-      <c r="R49" s="15" cm="1">
+      <c r="R49" s="1" cm="1">
         <f t="array" ref="R49:V53">MINVERSE(C51:G55)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S49" s="15">
-        <v>0</v>
-      </c>
-      <c r="T49" s="15">
-        <v>0</v>
-      </c>
-      <c r="U49" s="15">
-        <v>0</v>
-      </c>
-      <c r="V49" s="15">
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
         <v>0</v>
       </c>
       <c r="X49" s="1">
@@ -35915,19 +35908,19 @@
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="R50" s="15">
+      <c r="R50" s="1">
         <v>-0.33333333333333331</v>
       </c>
-      <c r="S50" s="15">
+      <c r="S50" s="1">
         <v>1</v>
       </c>
-      <c r="T50" s="15">
-        <v>0</v>
-      </c>
-      <c r="U50" s="15">
-        <v>0</v>
-      </c>
-      <c r="V50" s="15">
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
         <v>0</v>
       </c>
       <c r="X50" s="1">
@@ -35975,19 +35968,19 @@
         <f t="array" ref="O51:O55">_xlfn.ANCHORARRAY(O16)</f>
         <v>0</v>
       </c>
-      <c r="R51" s="15">
-        <v>0</v>
-      </c>
-      <c r="S51" s="15">
-        <v>0</v>
-      </c>
-      <c r="T51" s="15">
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
         <v>1</v>
       </c>
-      <c r="U51" s="15">
-        <v>0</v>
-      </c>
-      <c r="V51" s="15">
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
         <v>0</v>
       </c>
       <c r="X51" s="1">
@@ -36029,19 +36022,19 @@
       <c r="O52" s="4">
         <v>0</v>
       </c>
-      <c r="R52" s="15">
+      <c r="R52" s="1">
         <v>-0.13333333333333333</v>
       </c>
-      <c r="S52" s="15">
-        <v>0</v>
-      </c>
-      <c r="T52" s="15">
-        <v>0</v>
-      </c>
-      <c r="U52" s="15">
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
         <v>-1</v>
       </c>
-      <c r="V52" s="15">
+      <c r="V52" s="1">
         <v>0</v>
       </c>
     </row>
@@ -36080,19 +36073,19 @@
       <c r="O53" s="4">
         <v>0</v>
       </c>
-      <c r="R53" s="15">
-        <v>0</v>
-      </c>
-      <c r="S53" s="15">
-        <v>0</v>
-      </c>
-      <c r="T53" s="15">
-        <v>0</v>
-      </c>
-      <c r="U53" s="15">
-        <v>0</v>
-      </c>
-      <c r="V53" s="15">
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -36131,11 +36124,11 @@
       <c r="O54" s="4">
         <v>1</v>
       </c>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
       <c r="X54" s="1" cm="1">
         <f t="array" ref="X54">MMULT(C49:G49,_xlfn.ANCHORARRAY(X47))</f>
         <v>106</v>
@@ -36178,19 +36171,19 @@
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D59" s="1" cm="1">
@@ -36272,28 +36265,28 @@
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="s">
@@ -36526,17 +36519,17 @@
       <c r="S74" s="8">
         <v>106</v>
       </c>
-      <c r="U74" s="9" t="s">
+      <c r="U74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V74" s="9"/>
+      <c r="V74" s="12"/>
       <c r="W74" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X74" s="9" t="s">
+      <c r="X74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y74" s="9"/>
+      <c r="Y74" s="12"/>
       <c r="Z74" s="7" t="s">
         <v>24</v>
       </c>
@@ -36562,54 +36555,29 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B79" s="1">
@@ -36655,7 +36623,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B81" s="4">
         <v>0</v>
       </c>
@@ -36709,7 +36677,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.35">
       <c r="Q82" s="1">
         <v>-0.33333333333333331</v>
       </c>
@@ -36728,20 +36696,8 @@
       <c r="W82" s="1">
         <v>106</v>
       </c>
-      <c r="AT82" s="12"/>
-      <c r="AU82" s="12"/>
-      <c r="AV82" s="12"/>
-      <c r="AW82" s="12"/>
-      <c r="AX82" s="12"/>
-      <c r="AY82" s="12"/>
-      <c r="AZ82" s="12"/>
-      <c r="BA82" s="12"/>
-      <c r="BB82" s="12"/>
-      <c r="BC82" s="12"/>
-      <c r="BD82" s="12"/>
-      <c r="BE82" s="12"/>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B83" s="4" cm="1">
         <f t="array" ref="B83:B87">_xlfn.ANCHORARRAY(C51)</f>
         <v>15</v>
@@ -36802,20 +36758,19 @@
       <c r="W83" s="1">
         <v>119</v>
       </c>
-      <c r="AT83" s="13"/>
-      <c r="AU83" s="13"/>
-      <c r="AV83" s="13"/>
-      <c r="AW83" s="13"/>
-      <c r="AX83" s="13"/>
-      <c r="AY83" s="13"/>
-      <c r="AZ83" s="13"/>
-      <c r="BA83" s="13"/>
-      <c r="BB83" s="13"/>
-      <c r="BC83" s="13"/>
-      <c r="BD83" s="13"/>
-      <c r="BE83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="12"/>
+      <c r="AW83" s="12"/>
+      <c r="AX83" s="12"/>
+      <c r="AY83" s="12"/>
+      <c r="AZ83" s="12"/>
+      <c r="BA83" s="12"/>
+      <c r="BB83" s="12"/>
+      <c r="BC83" s="12"/>
+      <c r="BD83" s="12"/>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B84" s="4">
         <v>5</v>
       </c>
@@ -36866,7 +36821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B85" s="4">
         <v>0</v>
       </c>
@@ -36917,7 +36872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B86" s="4">
         <v>-2</v>
       </c>
@@ -36957,7 +36912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="B87" s="4">
         <v>0</v>
       </c>
@@ -36993,22 +36948,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="C91" s="1" cm="1">
         <f t="array" ref="C91:G91">MMULT(B81:F81,_xlfn.ANCHORARRAY(Q81))</f>
         <v>0</v>
@@ -37026,7 +36981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="C93" s="1" cm="1">
         <f t="array" ref="C93:H93">MMULT(_xlfn.ANCHORARRAY(C91),I83:N87)</f>
         <v>0</v>
@@ -37066,7 +37021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="J94" s="3" cm="1">
         <f t="array" ref="J94:O94">I79:N79</f>
         <v>1</v>
@@ -37087,29 +37042,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="10"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
@@ -37191,15 +37146,15 @@
       <c r="N106" s="4"/>
       <c r="O106" s="7"/>
       <c r="R106" s="8"/>
-      <c r="T106" s="9" t="s">
+      <c r="T106" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U106" s="9"/>
+      <c r="U106" s="12"/>
       <c r="V106" s="7"/>
-      <c r="W106" s="9" t="s">
+      <c r="W106" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="X106" s="9"/>
+      <c r="X106" s="12"/>
       <c r="Y106" s="7"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.35">
@@ -37212,6 +37167,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="AT83:BD83"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="I95:R95"/>
+    <mergeCell ref="T106:U106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="A77:U77"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:S63"/>
+    <mergeCell ref="U74:V74"/>
+    <mergeCell ref="X74:Y74"/>
     <mergeCell ref="X39:Y39"/>
     <mergeCell ref="A42:U42"/>
     <mergeCell ref="A1:U1"/>
@@ -37220,19 +37188,6 @@
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="J28:S28"/>
     <mergeCell ref="U39:V39"/>
-    <mergeCell ref="T106:U106"/>
-    <mergeCell ref="W106:X106"/>
-    <mergeCell ref="A77:U77"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:S63"/>
-    <mergeCell ref="U74:V74"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="AT83:BD83"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="I95:R95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37243,36 +37198,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3A54D8-BD45-481F-8D9A-EB6CBAEFB915}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -37350,7 +37305,7 @@
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -37403,7 +37358,7 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="1">
         <v>105</v>
@@ -37416,13 +37371,13 @@
       <c r="S4" s="1">
         <v>30</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="11">
         <v>-4</v>
       </c>
       <c r="U4" s="1">
         <v>5</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="11">
         <v>-10</v>
       </c>
       <c r="W4" s="1">
@@ -37440,7 +37395,7 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="12"/>
+      <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -37478,7 +37433,7 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="1">
         <v>765</v>
@@ -37533,7 +37488,7 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="1">
         <v>220</v>
@@ -37588,7 +37543,7 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="1">
         <v>-120</v>
@@ -37643,7 +37598,7 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="1">
         <v>225</v>
@@ -37699,29 +37654,29 @@
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -37801,7 +37756,7 @@
       <c r="N12" s="1">
         <v>9</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -37837,7 +37792,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -37896,7 +37851,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1" cm="1">
@@ -37942,7 +37897,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="1">
@@ -38012,7 +37967,7 @@
         <f t="array" ref="N16:N20">K4:K8</f>
         <v>0</v>
       </c>
-      <c r="O16" s="12"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1">
@@ -38077,7 +38032,7 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="12"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="1">
@@ -38140,7 +38095,7 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="12"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1">
@@ -38203,7 +38158,7 @@
       <c r="N19" s="4">
         <v>1</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -38259,7 +38214,7 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -38312,19 +38267,19 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -38475,8 +38430,8 @@
       <c r="H26" s="1">
         <v>10</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="1" cm="1">
         <f t="array" ref="K26:O26">J14:N14-_xlfn.ANCHORARRAY(D26)</f>
         <v>27</v>
@@ -38493,7 +38448,7 @@
       <c r="O26" s="1">
         <v>-10</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -38556,28 +38511,28 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -38646,7 +38601,10 @@
         <f t="array" ref="K30:K34">_xlfn.ANCHORARRAY(X12)</f>
         <v>105</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" cm="1">
+        <f t="array" ref="L30:L34">TRANSPOSE(C12:G12)</f>
+        <v>6</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="4" t="str" cm="1">
@@ -38692,7 +38650,9 @@
       <c r="K31" s="1">
         <v>765</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>7</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="4">
@@ -38738,7 +38698,9 @@
       <c r="K32" s="1">
         <v>220</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <v>8</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4">
@@ -38783,7 +38745,9 @@
       <c r="K33" s="1">
         <v>105</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3">
+        <v>10</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="4" t="str">
@@ -38828,7 +38792,9 @@
       <c r="K34" s="1">
         <v>120</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3">
+        <v>5</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4" t="str">
@@ -38873,7 +38839,10 @@
       <c r="K35" s="8">
         <v>0</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3" cm="1">
+        <f t="array" ref="L35:L39">TRANSPOSE(J12:N12)</f>
+        <v>1</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="str">
@@ -38916,7 +38885,9 @@
       <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="str">
@@ -38957,7 +38928,9 @@
       <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="str">
@@ -38998,7 +38971,9 @@
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3">
+        <v>4</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="str">
@@ -39039,7 +39014,9 @@
       <c r="K39" s="8">
         <v>0</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3">
+        <v>9</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="4" t="str">
@@ -39055,17 +39032,17 @@
         <v>0</v>
       </c>
       <c r="T39" s="3"/>
-      <c r="U39" s="9" t="s">
+      <c r="U39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V39" s="9"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X39" s="9" t="s">
+      <c r="X39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="7" t="s">
         <v>26</v>
       </c>
@@ -39081,20 +39058,20 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -39142,277 +39119,277 @@
       <c r="AE41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -39433,8 +39410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DA11BD-A4CF-4384-8356-5AAF89BE5BC5}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="59" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D23" zoomScale="104" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39449,29 +39426,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -39549,7 +39526,7 @@
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -39602,7 +39579,7 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="1">
         <v>105</v>
@@ -39615,13 +39592,13 @@
       <c r="S4" s="1">
         <v>30</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="11">
         <v>-4</v>
       </c>
       <c r="U4" s="1">
         <v>5</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="11">
         <v>-10</v>
       </c>
       <c r="W4" s="1">
@@ -39639,7 +39616,7 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="12"/>
+      <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -39677,7 +39654,7 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="1">
         <v>765</v>
@@ -39732,7 +39709,7 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="1">
         <v>220</v>
@@ -39787,7 +39764,7 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="1">
         <v>-120</v>
@@ -39842,7 +39819,7 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="1">
         <v>225</v>
@@ -39898,29 +39875,29 @@
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -40000,7 +39977,7 @@
       <c r="N12" s="1">
         <v>9</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -40036,7 +40013,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -40096,7 +40073,7 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1" cm="1">
@@ -40142,7 +40119,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="1">
@@ -40217,7 +40194,7 @@
         <f t="array" ref="N16:N20">K4:K8</f>
         <v>0</v>
       </c>
-      <c r="O16" s="12"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1">
@@ -40282,7 +40259,7 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="12"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="1">
@@ -40345,7 +40322,7 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="12"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1">
@@ -40408,7 +40385,7 @@
       <c r="N19" s="4">
         <v>1</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -40464,7 +40441,7 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -40517,19 +40494,19 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -40680,8 +40657,8 @@
       <c r="H26" s="1">
         <v>10</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="1" cm="1">
         <f t="array" ref="K26:O26">J14:N14-_xlfn.ANCHORARRAY(D26)</f>
         <v>-3</v>
@@ -40698,7 +40675,7 @@
       <c r="O26" s="1">
         <v>-10</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -40761,28 +40738,28 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -40851,7 +40828,10 @@
         <f t="array" ref="K30:K34">_xlfn.ANCHORARRAY(X12)</f>
         <v>105</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" cm="1">
+        <f t="array" ref="L30:L34">TRANSPOSE(C12:G12)</f>
+        <v>6</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="4" t="str" cm="1">
@@ -40897,7 +40877,9 @@
       <c r="K31" s="1">
         <v>325</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>7</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="4">
@@ -40943,7 +40925,9 @@
       <c r="K32" s="1">
         <v>220</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4" t="str">
@@ -40988,7 +40972,9 @@
       <c r="K33" s="1">
         <v>105</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3">
+        <v>10</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="4">
@@ -41033,7 +41019,9 @@
       <c r="K34" s="1">
         <v>120</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3">
+        <v>5</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4" t="str">
@@ -41078,7 +41066,10 @@
       <c r="K35" s="8">
         <v>0</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3" cm="1">
+        <f t="array" ref="L35:L39">TRANSPOSE(J12:N12)</f>
+        <v>1</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="str">
@@ -41121,7 +41112,9 @@
       <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>8</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="str">
@@ -41162,7 +41155,9 @@
       <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="str">
@@ -41203,7 +41198,9 @@
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3">
+        <v>4</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="str">
@@ -41244,7 +41241,9 @@
       <c r="K39" s="8">
         <v>0</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3">
+        <v>9</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="4" t="str">
@@ -41260,17 +41259,17 @@
         <v>0</v>
       </c>
       <c r="T39" s="3"/>
-      <c r="U39" s="9" t="s">
+      <c r="U39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V39" s="9"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X39" s="9" t="s">
+      <c r="X39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="7" t="s">
         <v>28</v>
       </c>
@@ -41286,20 +41285,20 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -41347,277 +41346,277 @@
       <c r="AE41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -41638,8 +41637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD915D79-2581-4D2A-9179-F5B53B158A55}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView showGridLines="0" topLeftCell="H27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41654,29 +41653,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -41754,7 +41753,7 @@
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -41807,7 +41806,7 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="1">
         <v>105</v>
@@ -41820,13 +41819,13 @@
       <c r="S4" s="1">
         <v>30</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="11">
         <v>-4</v>
       </c>
       <c r="U4" s="1">
         <v>5</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="11">
         <v>-10</v>
       </c>
       <c r="W4" s="1">
@@ -41844,7 +41843,7 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="12"/>
+      <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -41882,7 +41881,7 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="1">
         <v>765</v>
@@ -41937,7 +41936,7 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="1">
         <v>220</v>
@@ -41992,7 +41991,7 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="1">
         <v>-120</v>
@@ -42047,7 +42046,7 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="1">
         <v>225</v>
@@ -42103,29 +42102,29 @@
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -42205,7 +42204,7 @@
       <c r="N12" s="1">
         <v>9</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -42241,7 +42240,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -42301,7 +42300,7 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1" cm="1">
@@ -42347,7 +42346,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="1">
@@ -42422,7 +42421,7 @@
         <f t="array" ref="N16:N20">K4:K8</f>
         <v>0</v>
       </c>
-      <c r="O16" s="12"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1">
@@ -42487,7 +42486,7 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="12"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="1">
@@ -42550,7 +42549,7 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="12"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1">
@@ -42613,7 +42612,7 @@
       <c r="N19" s="4">
         <v>1</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -42669,7 +42668,7 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -42722,19 +42721,19 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -42885,8 +42884,8 @@
       <c r="H26" s="1">
         <v>11.666666666666666</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="1" cm="1">
         <f t="array" ref="K26:O26">J14:N14-_xlfn.ANCHORARRAY(D26)</f>
         <v>-1.3333333333333357</v>
@@ -42903,7 +42902,7 @@
       <c r="O26" s="1">
         <v>-11.666666666666666</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -42966,28 +42965,28 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -43056,7 +43055,10 @@
         <f t="array" ref="K30:K34">_xlfn.ANCHORARRAY(X12)</f>
         <v>105</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" cm="1">
+        <f t="array" ref="L30:L34">TRANSPOSE(C12:G12)</f>
+        <v>6</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="4" cm="1">
@@ -43102,7 +43104,9 @@
       <c r="K31" s="1">
         <v>220</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3">
+        <v>7</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="4">
@@ -43148,7 +43152,9 @@
       <c r="K32" s="1">
         <v>220</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4" t="str">
@@ -43193,7 +43199,9 @@
       <c r="K33" s="1">
         <v>35</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3">
+        <v>4</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="4" t="str">
@@ -43238,7 +43246,9 @@
       <c r="K34" s="1">
         <v>120</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3">
+        <v>5</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="4">
@@ -43283,7 +43293,10 @@
       <c r="K35" s="8">
         <v>0</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3" cm="1">
+        <f t="array" ref="L35:L39">TRANSPOSE(J12:N12)</f>
+        <v>1</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="str">
@@ -43326,7 +43339,9 @@
       <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>8</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="str">
@@ -43367,7 +43382,9 @@
       <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="str">
@@ -43408,7 +43425,9 @@
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3">
+        <v>10</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="str">
@@ -43449,7 +43468,9 @@
       <c r="K39" s="8">
         <v>0</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3">
+        <v>9</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="4" t="str">
@@ -43465,17 +43486,17 @@
         <v>0</v>
       </c>
       <c r="T39" s="3"/>
-      <c r="U39" s="9" t="s">
+      <c r="U39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V39" s="9"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X39" s="9" t="s">
+      <c r="X39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="7" t="s">
         <v>15</v>
       </c>
@@ -43491,20 +43512,20 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -43552,277 +43573,277 @@
       <c r="AE41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -43843,8 +43864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8CA073-D613-45CE-BB23-C4D6E90A22A9}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="63" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43859,29 +43880,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -43959,7 +43980,7 @@
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -44012,7 +44033,7 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="1">
         <v>105</v>
@@ -44025,13 +44046,13 @@
       <c r="S4" s="1">
         <v>30</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="11">
         <v>-4</v>
       </c>
       <c r="U4" s="1">
         <v>5</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="11">
         <v>-10</v>
       </c>
       <c r="W4" s="1">
@@ -44049,7 +44070,7 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="12"/>
+      <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
@@ -44087,7 +44108,7 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="1">
         <v>765</v>
@@ -44142,7 +44163,7 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="1">
         <v>220</v>
@@ -44197,7 +44218,7 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="1">
         <v>-120</v>
@@ -44252,7 +44273,7 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="1">
         <v>225</v>
@@ -44308,29 +44329,29 @@
       <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="A10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -44410,7 +44431,7 @@
       <c r="N12" s="1">
         <v>9</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -44446,7 +44467,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -44505,7 +44526,7 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="1" cm="1">
@@ -44551,7 +44572,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="1">
@@ -44626,7 +44647,7 @@
         <f t="array" ref="N16:N20">K4:K8</f>
         <v>0</v>
       </c>
-      <c r="O16" s="12"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1">
@@ -44691,7 +44712,7 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="12"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="1">
@@ -44754,7 +44775,7 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="12"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="1">
@@ -44817,7 +44838,7 @@
       <c r="N19" s="4">
         <v>1</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -44873,7 +44894,7 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -44926,19 +44947,19 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -45089,8 +45110,8 @@
       <c r="H26" s="1">
         <v>11.666666666666666</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="1" cm="1">
         <f t="array" ref="K26:O26">J14:N14-_xlfn.ANCHORARRAY(D26)</f>
         <v>-10.355555555555561</v>
@@ -45107,7 +45128,7 @@
       <c r="O26" s="1">
         <v>-11.666666666666666</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -45170,28 +45191,28 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -45558,15 +45579,15 @@
       <c r="R39" s="3"/>
       <c r="S39" s="8"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="9" t="s">
+      <c r="U39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V39" s="9"/>
+      <c r="V39" s="12"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="9" t="s">
+      <c r="X39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
@@ -45580,20 +45601,20 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -45641,277 +45662,277 @@
       <c r="AE41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Excel-Punto1.xlsx
+++ b/Excel-Punto1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/j_murilloa_uniandes_edu_co/Documents/2024-01/Optimizacion/Entrenamientos/Entrenamiento3-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9279ab3caa12efcc/Escritorio/AbrahamBohorquez/4 Industrial semestre IV/Entrenamiento3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="8_{9C0B82C7-FB64-4399-8F55-23A6DBC8D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12464E71-CC30-41EC-9C20-22FB71829F26}"/>
+  <xr:revisionPtr revIDLastSave="733" documentId="8_{9C0B82C7-FB64-4399-8F55-23A6DBC8D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F21CF2E-1C41-42F6-85C1-1CA13D4AE942}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="2" activeTab="2" xr2:uid="{731802CE-FA4D-4447-88F3-C734CB949B52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{731802CE-FA4D-4447-88F3-C734CB949B52}"/>
   </bookViews>
   <sheets>
     <sheet name="d) Solución inicial básica" sheetId="2" r:id="rId1"/>
@@ -293,10 +293,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -34391,10 +34391,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34716,41 +34712,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B6B298-99EE-4057-BECA-208DC52717A9}">
   <dimension ref="A1:BD107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="53" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="6.7265625" style="3"/>
+    <col min="1" max="16384" width="6.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -34785,7 +34781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>7</v>
       </c>
@@ -34856,7 +34852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>0</v>
       </c>
@@ -34894,7 +34890,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -34935,7 +34931,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>-1</v>
       </c>
@@ -34976,7 +34972,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>0</v>
       </c>
@@ -35014,32 +35010,32 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -35078,12 +35074,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="X13" s="1">
         <v>765</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>0</v>
       </c>
@@ -35138,7 +35134,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="R15" s="1">
         <v>0</v>
       </c>
@@ -35158,7 +35154,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C16" s="4" cm="1">
         <f t="array" ref="C16:E20">H4:J8</f>
         <v>1</v>
@@ -35219,7 +35215,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>0</v>
       </c>
@@ -35272,7 +35268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
         <v>0</v>
       </c>
@@ -35325,7 +35321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>0</v>
       </c>
@@ -35367,7 +35363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C20" s="4">
         <v>0</v>
       </c>
@@ -35405,22 +35401,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D24" s="1" cm="1">
         <f t="array" ref="D24:H24">MMULT(C14:G14,_xlfn.ANCHORARRAY(R14))</f>
         <v>0</v>
@@ -35438,7 +35434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D26" s="1" cm="1">
         <f t="array" ref="D26:I26">MMULT(_xlfn.ANCHORARRAY(D24),J16:O20)</f>
         <v>1</v>
@@ -35478,7 +35474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K27" s="3">
         <v>1</v>
       </c>
@@ -35498,31 +35494,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
@@ -35549,7 +35545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="F31" s="1">
         <v>-5</v>
       </c>
@@ -35566,7 +35562,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C32" s="1" cm="1">
         <f t="array" ref="C32:C36">E4:E8</f>
         <v>15</v>
@@ -35587,7 +35583,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>5</v>
       </c>
@@ -35607,7 +35603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>0</v>
       </c>
@@ -35627,7 +35623,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>-2</v>
       </c>
@@ -35650,7 +35646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>0</v>
       </c>
@@ -35673,7 +35669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E37" s="3">
         <v>3</v>
       </c>
@@ -35693,7 +35689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E38" s="3">
         <v>4</v>
       </c>
@@ -35713,7 +35709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E39" s="3">
         <v>5</v>
       </c>
@@ -35751,7 +35747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E40" s="3">
         <v>9</v>
       </c>
@@ -35771,32 +35767,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -35809,7 +35805,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>3</v>
       </c>
@@ -35848,12 +35844,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X48" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C49" s="4">
         <v>0</v>
       </c>
@@ -35907,7 +35903,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="R50" s="1">
         <v>-0.33333333333333331</v>
       </c>
@@ -35927,7 +35923,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C51" s="4" cm="1">
         <f t="array" ref="C51:C55">E4:E8</f>
         <v>15</v>
@@ -35987,7 +35983,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C52" s="4">
         <v>5</v>
       </c>
@@ -36038,7 +36034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C53" s="4">
         <v>0</v>
       </c>
@@ -36089,7 +36085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C54" s="4">
         <v>-2</v>
       </c>
@@ -36134,7 +36130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C55" s="4">
         <v>0</v>
       </c>
@@ -36170,22 +36166,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B57" s="14" t="s">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D59" s="1" cm="1">
         <f t="array" ref="D59:H59">MMULT(C49:G49,_xlfn.ANCHORARRAY(R49))</f>
         <v>-0.13333333333333333</v>
@@ -36203,7 +36199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D61" s="1" cm="1">
         <f t="array" ref="D61:I61">MMULT(_xlfn.ANCHORARRAY(D59),J51:O55)</f>
         <v>6.6666666666666652E-2</v>
@@ -36243,7 +36239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K62" s="3" cm="1">
         <f t="array" ref="K62:P62">J47:O47</f>
         <v>1</v>
@@ -36264,31 +36260,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B63" s="14" t="s">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
@@ -36320,7 +36316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F66" s="1">
         <v>0</v>
       </c>
@@ -36340,7 +36336,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C67" s="1" cm="1">
         <f t="array" ref="C67:C71">N51:N55</f>
         <v>0</v>
@@ -36364,7 +36360,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
         <v>0</v>
       </c>
@@ -36387,7 +36383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>0</v>
       </c>
@@ -36410,7 +36406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
         <v>-1</v>
       </c>
@@ -36434,7 +36430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
         <v>1</v>
       </c>
@@ -36457,7 +36453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E72" s="3">
         <v>3</v>
       </c>
@@ -36477,7 +36473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E73" s="3">
         <v>4</v>
       </c>
@@ -36497,7 +36493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E74" s="3">
         <v>5</v>
       </c>
@@ -36534,7 +36530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E75" s="3">
         <v>9</v>
       </c>
@@ -36554,32 +36550,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A77" s="13" t="s">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="14"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>3</v>
       </c>
@@ -36618,12 +36614,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="W80" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="81" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>0</v>
       </c>
@@ -36677,7 +36673,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Q82" s="1">
         <v>-0.33333333333333331</v>
       </c>
@@ -36697,7 +36693,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B83" s="4" cm="1">
         <f t="array" ref="B83:B87">_xlfn.ANCHORARRAY(C51)</f>
         <v>15</v>
@@ -36770,7 +36766,7 @@
       <c r="BC83" s="12"/>
       <c r="BD83" s="12"/>
     </row>
-    <row r="84" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>5</v>
       </c>
@@ -36821,7 +36817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>0</v>
       </c>
@@ -36872,7 +36868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>-2</v>
       </c>
@@ -36912,7 +36908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>0</v>
       </c>
@@ -36948,22 +36944,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
     </row>
-    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C91" s="1" cm="1">
         <f t="array" ref="C91:G91">MMULT(B81:F81,_xlfn.ANCHORARRAY(Q81))</f>
         <v>0</v>
@@ -36981,7 +36977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C93" s="1" cm="1">
         <f t="array" ref="C93:H93">MMULT(_xlfn.ANCHORARRAY(C91),I83:N87)</f>
         <v>0</v>
@@ -37021,7 +37017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.25">
       <c r="J94" s="3" cm="1">
         <f t="array" ref="J94:O94">I79:N79</f>
         <v>1</v>
@@ -37042,31 +37038,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="14" t="s">
+      <c r="I95" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>12</v>
       </c>
@@ -37076,34 +37072,34 @@
       <c r="N97" s="4"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="J98" s="1"/>
       <c r="N98" s="4"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="E99" s="1"/>
       <c r="J99" s="1"/>
       <c r="N99" s="4"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="E100" s="1"/>
       <c r="J100" s="1"/>
       <c r="N100" s="4"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="E101" s="1"/>
       <c r="J101" s="1"/>
       <c r="N101" s="4"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="D102" s="3">
         <v>1</v>
@@ -37112,7 +37108,7 @@
       <c r="J102" s="8"/>
       <c r="R102" s="8"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="D103" s="3">
         <v>2</v>
@@ -37121,7 +37117,7 @@
       <c r="J103" s="8"/>
       <c r="R103" s="8"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D104" s="3">
         <v>3</v>
       </c>
@@ -37129,7 +37125,7 @@
       <c r="J104" s="8"/>
       <c r="R104" s="8"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D105" s="3">
         <v>4</v>
       </c>
@@ -37137,7 +37133,7 @@
       <c r="J105" s="8"/>
       <c r="R105" s="8"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D106" s="3">
         <v>5</v>
       </c>
@@ -37157,7 +37153,7 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="7"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D107" s="3">
         <v>9</v>
       </c>
@@ -37167,11 +37163,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="AT83:BD83"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="I95:R95"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="A42:U42"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="U39:V39"/>
     <mergeCell ref="T106:U106"/>
     <mergeCell ref="W106:X106"/>
     <mergeCell ref="A77:U77"/>
@@ -37180,14 +37179,11 @@
     <mergeCell ref="J63:S63"/>
     <mergeCell ref="U74:V74"/>
     <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="A42:U42"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="AT83:BD83"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="I95:R95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37198,36 +37194,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3A54D8-BD45-481F-8D9A-EB6CBAEFB915}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -37239,7 +37235,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -37272,7 +37268,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -37325,7 +37321,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
@@ -37400,7 +37396,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1">
@@ -37455,7 +37451,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -37510,7 +37506,7 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -37565,7 +37561,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -37620,7 +37616,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -37653,30 +37649,30 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -37688,7 +37684,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -37721,7 +37717,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
@@ -37777,7 +37773,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -37812,7 +37808,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4" cm="1">
@@ -37882,7 +37878,7 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -37927,7 +37923,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" cm="1">
@@ -37997,7 +37993,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4">
@@ -38060,7 +38056,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4">
@@ -38123,7 +38119,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -38179,7 +38175,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4">
@@ -38232,7 +38228,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -38265,21 +38261,21 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -38300,7 +38296,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -38333,7 +38329,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -38377,7 +38373,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -38410,7 +38406,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -38465,7 +38461,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -38509,30 +38505,30 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -38546,7 +38542,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -38579,7 +38575,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -38634,7 +38630,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -38679,7 +38675,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1" cm="1">
@@ -38727,7 +38723,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1">
@@ -38774,7 +38770,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1">
@@ -38821,7 +38817,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1">
@@ -38867,7 +38863,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1">
@@ -38912,7 +38908,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -38955,7 +38951,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -38998,7 +38994,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -39052,7 +39048,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -39085,7 +39081,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -39118,7 +39114,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -39139,7 +39135,7 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -39160,7 +39156,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -39181,7 +39177,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -39202,7 +39198,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -39223,7 +39219,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -39244,7 +39240,7 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -39265,7 +39261,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -39286,7 +39282,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -39307,7 +39303,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -39328,7 +39324,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -39349,7 +39345,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -39370,7 +39366,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -39410,45 +39406,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DA11BD-A4CF-4384-8356-5AAF89BE5BC5}">
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D23" zoomScale="104" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D23" zoomScale="104" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -39460,7 +39456,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -39493,7 +39489,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -39546,7 +39542,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
@@ -39621,7 +39617,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1">
@@ -39676,7 +39672,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -39731,7 +39727,7 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -39786,7 +39782,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -39841,7 +39837,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -39874,30 +39870,30 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -39909,7 +39905,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -39942,7 +39938,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
@@ -39998,7 +39994,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -40033,7 +40029,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
@@ -40104,7 +40100,7 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -40149,7 +40145,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" cm="1">
@@ -40224,7 +40220,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4">
@@ -40287,7 +40283,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4">
@@ -40350,7 +40346,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -40406,7 +40402,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4">
@@ -40459,7 +40455,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -40492,21 +40488,21 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -40527,7 +40523,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -40560,7 +40556,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -40604,7 +40600,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -40637,7 +40633,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -40692,7 +40688,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -40736,30 +40732,30 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -40773,7 +40769,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -40806,7 +40802,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -40861,7 +40857,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -40906,7 +40902,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1" cm="1">
@@ -40954,7 +40950,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1">
@@ -41001,7 +40997,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1">
@@ -41048,7 +41044,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1">
@@ -41094,7 +41090,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1">
@@ -41139,7 +41135,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -41182,7 +41178,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -41225,7 +41221,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -41279,7 +41275,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -41312,7 +41308,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -41345,7 +41341,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -41366,7 +41362,7 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -41387,7 +41383,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -41408,7 +41404,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -41429,7 +41425,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -41450,7 +41446,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -41471,7 +41467,7 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -41492,7 +41488,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -41513,7 +41509,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -41534,7 +41530,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -41555,7 +41551,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -41576,7 +41572,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -41597,7 +41593,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -41641,41 +41637,41 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -41687,7 +41683,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -41720,7 +41716,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -41773,7 +41769,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
@@ -41848,7 +41844,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1">
@@ -41903,7 +41899,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -41958,7 +41954,7 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -42013,7 +42009,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -42068,7 +42064,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -42101,30 +42097,30 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -42136,7 +42132,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -42169,7 +42165,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
@@ -42225,7 +42221,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -42260,7 +42256,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
@@ -42331,7 +42327,7 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -42376,7 +42372,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" cm="1">
@@ -42451,7 +42447,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4">
@@ -42514,7 +42510,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4">
@@ -42577,7 +42573,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -42633,7 +42629,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4">
@@ -42686,7 +42682,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -42719,21 +42715,21 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -42754,7 +42750,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -42787,7 +42783,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -42831,7 +42827,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -42864,7 +42860,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -42919,7 +42915,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -42963,30 +42959,30 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -43000,7 +42996,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -43033,7 +43029,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -43088,7 +43084,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -43133,7 +43129,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1" cm="1">
@@ -43181,7 +43177,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1">
@@ -43228,7 +43224,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1">
@@ -43275,7 +43271,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1">
@@ -43321,7 +43317,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1">
@@ -43366,7 +43362,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -43409,7 +43405,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -43452,7 +43448,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -43506,7 +43502,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -43539,7 +43535,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -43572,7 +43568,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -43593,7 +43589,7 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -43614,7 +43610,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -43635,7 +43631,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -43656,7 +43652,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -43677,7 +43673,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -43698,7 +43694,7 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -43719,7 +43715,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -43740,7 +43736,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -43761,7 +43757,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -43782,7 +43778,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -43803,7 +43799,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -43824,7 +43820,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -43868,41 +43864,41 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -43914,7 +43910,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -43947,7 +43943,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -44000,7 +43996,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
@@ -44075,7 +44071,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1">
@@ -44130,7 +44126,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
@@ -44185,7 +44181,7 @@
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
     </row>
-    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
@@ -44240,7 +44236,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1">
@@ -44295,7 +44291,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -44328,30 +44324,30 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -44363,7 +44359,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -44396,7 +44392,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
@@ -44452,7 +44448,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -44487,7 +44483,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
@@ -44557,7 +44553,7 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -44602,7 +44598,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" cm="1">
@@ -44677,7 +44673,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4">
@@ -44740,7 +44736,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4">
@@ -44803,7 +44799,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -44859,7 +44855,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4">
@@ -44912,7 +44908,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -44945,21 +44941,21 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -44980,7 +44976,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -45013,7 +45009,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -45057,7 +45053,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -45090,7 +45086,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -45145,7 +45141,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -45189,30 +45185,30 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -45226,7 +45222,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -45259,7 +45255,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -45294,7 +45290,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -45327,7 +45323,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
@@ -45360,7 +45356,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
@@ -45393,7 +45389,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
@@ -45426,7 +45422,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
@@ -45459,7 +45455,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
@@ -45492,7 +45488,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -45525,7 +45521,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -45558,7 +45554,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -45595,7 +45591,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -45628,7 +45624,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -45661,7 +45657,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -45682,7 +45678,7 @@
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -45703,7 +45699,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -45724,7 +45720,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -45745,7 +45741,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -45766,7 +45762,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -45787,7 +45783,7 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -45808,7 +45804,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -45829,7 +45825,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -45850,7 +45846,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -45871,7 +45867,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -45892,7 +45888,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -45913,7 +45909,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
